--- a/datasets/Premier_League/standings/all_standings/season-2021/tabela.xlsx
+++ b/datasets/Premier_League/standings/all_standings/season-2021/tabela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS21"/>
+  <dimension ref="A1:BB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,60 +601,105 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
+          <t>poss_casa</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>poss_fora</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>poss_total</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>sot_casa</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>sot_fora</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>sot_total</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>sh_casa</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>sh_fora</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>sh_total</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
           <t>xg_5casa</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>xg_5fora</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>xg_5total</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>xga_5casa</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>xga_5fora</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>xga_5total</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>gf_5casa</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>gf_5fora</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>gf_5total</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>ga_5casa</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>ga_5fora</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>ga_5total</t>
         </is>
@@ -751,7 +796,7 @@
         <v>2.031847133757962</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.788257390168218</v>
+        <v>2.394128695084109</v>
       </c>
       <c r="AE2" t="n">
         <v>0.8205128205128205</v>
@@ -760,42 +805,69 @@
         <v>0.8598726114649682</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.680385431977789</v>
+        <v>0.8401927159888943</v>
       </c>
       <c r="AH2" t="n">
+        <v>66.14102564102564</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>64.54777070063695</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>65.34439817083128</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>5.585987261146497</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>6.042993630573248</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>18.09615384615385</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>16.03821656050955</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>17.0671852033317</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>2.27</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AR2" t="n">
         <v>1.925490196078431</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AS2" t="n">
         <v>2.097745098039216</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AT2" t="n">
         <v>0.701</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AU2" t="n">
         <v>0.7872549019607843</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AV2" t="n">
         <v>0.7441274509803921</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AW2" t="n">
         <v>2.691729323308271</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AX2" t="n">
         <v>1.97037037037037</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AY2" t="n">
         <v>4.662099693678641</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AZ2" t="n">
         <v>0.8496240601503759</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="BA2" t="n">
         <v>0.8814814814814815</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="BB2" t="n">
         <v>1.731105541631857</v>
       </c>
     </row>
@@ -890,7 +962,7 @@
         <v>1.853503184713376</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.193246774456965</v>
+        <v>2.096623387228483</v>
       </c>
       <c r="AE3" t="n">
         <v>0.7948717948717948</v>
@@ -899,42 +971,69 @@
         <v>1.178343949044586</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.973215743916381</v>
+        <v>0.9866078719581903</v>
       </c>
       <c r="AH3" t="n">
+        <v>62.7051282051282</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>59.38216560509554</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>61.04364690511187</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6.230769230769231</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5.191082802547771</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>5.710926016658501</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>18.13461538461538</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>14.6687898089172</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>16.40170259676629</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>2.073</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AR3" t="n">
         <v>1.743137254901961</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AS3" t="n">
         <v>1.90806862745098</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AT3" t="n">
         <v>0.858</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AU3" t="n">
         <v>1.146078431372549</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AV3" t="n">
         <v>1.002039215686275</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AW3" t="n">
         <v>2.281481481481482</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AX3" t="n">
         <v>1.857142857142857</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AY3" t="n">
         <v>4.138624338624339</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AZ3" t="n">
         <v>0.8</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="BA3" t="n">
         <v>1.112781954887218</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="BB3" t="n">
         <v>1.912781954887218</v>
       </c>
     </row>
@@ -1029,7 +1128,7 @@
         <v>1.557692307692308</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.341131798138168</v>
+        <v>1.670565899069084</v>
       </c>
       <c r="AE4" t="n">
         <v>0.9872611464968153</v>
@@ -1038,42 +1137,69 @@
         <v>1.198717948717949</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.185979095214764</v>
+        <v>1.092989547607382</v>
       </c>
       <c r="AH4" t="n">
+        <v>59.28025477707006</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>58.72435897435897</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>59.00230687571452</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>5.56687898089172</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>4.474358974358974</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>5.020618977625347</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>16.22292993630573</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13.5448717948718</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>14.88390086558876</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>1.742574257425743</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AR4" t="n">
         <v>1.405940594059406</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AS4" t="n">
         <v>1.574257425742574</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AT4" t="n">
         <v>0.8168316831683168</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AU4" t="n">
         <v>1.106930693069307</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AV4" t="n">
         <v>0.9618811881188118</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AW4" t="n">
         <v>1.746268656716418</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AX4" t="n">
         <v>1.514925373134328</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AY4" t="n">
         <v>3.261194029850746</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AZ4" t="n">
         <v>0.9626865671641791</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="BA4" t="n">
         <v>1.134328358208955</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="BB4" t="n">
         <v>2.097014925373134</v>
       </c>
     </row>
@@ -1168,7 +1294,7 @@
         <v>1.746835443037975</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.734014930217462</v>
+        <v>1.867007465108731</v>
       </c>
       <c r="AE5" t="n">
         <v>0.8910256410256411</v>
@@ -1177,42 +1303,69 @@
         <v>1.272151898734177</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.163177539759818</v>
+        <v>1.081588769879909</v>
       </c>
       <c r="AH5" t="n">
+        <v>56.2051282051282</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>55.20886075949367</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>55.70699448231093</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>5.865384615384615</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>4.664556962025316</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>5.264970788704966</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>16.07051282051282</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>12.82911392405063</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>14.44981337228173</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>1.654</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AR5" t="n">
         <v>1.321359223300971</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AS5" t="n">
         <v>1.487679611650486</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AT5" t="n">
         <v>1.074</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AU5" t="n">
         <v>1.287378640776699</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AV5" t="n">
         <v>1.18068932038835</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AW5" t="n">
         <v>2.082706766917293</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AX5" t="n">
         <v>1.676470588235294</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AY5" t="n">
         <v>3.759177355152588</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AZ5" t="n">
         <v>0.8872180451127819</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="BA5" t="n">
         <v>1.308823529411765</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="BB5" t="n">
         <v>2.196041574524547</v>
       </c>
     </row>
@@ -1307,7 +1460,7 @@
         <v>1.557692307692308</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.621386575208231</v>
+        <v>1.810693287604116</v>
       </c>
       <c r="AE6" t="n">
         <v>0.9936305732484076</v>
@@ -1316,42 +1469,69 @@
         <v>1.358974358974359</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.352604932222767</v>
+        <v>1.176302466111383</v>
       </c>
       <c r="AH6" t="n">
+        <v>58.59872611464968</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>55.60897435897436</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>57.10385023681202</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>5.515923566878981</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>4.07051282051282</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>4.793218193695901</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>15.77070063694267</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11.96794871794872</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>13.8693246774457</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>1.824271844660194</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AR6" t="n">
         <v>1.363636363636364</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AS6" t="n">
         <v>1.593954104148279</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AT6" t="n">
         <v>1.162135922330097</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AU6" t="n">
         <v>1.323232323232323</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AV6" t="n">
         <v>1.24268412278121</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AW6" t="n">
         <v>2.080882352941177</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AX6" t="n">
         <v>1.590909090909091</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AY6" t="n">
         <v>3.671791443850267</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AZ6" t="n">
         <v>0.9411764705882353</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="BA6" t="n">
         <v>1.378787878787879</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="BB6" t="n">
         <v>2.319964349376114</v>
       </c>
     </row>
@@ -1446,7 +1626,7 @@
         <v>1.435897435897436</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.200228646088519</v>
+        <v>1.600114323044259</v>
       </c>
       <c r="AE7" t="n">
         <v>0.8853503184713376</v>
@@ -1455,42 +1635,69 @@
         <v>1.282051282051282</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.16740160052262</v>
+        <v>1.08370080026131</v>
       </c>
       <c r="AH7" t="n">
+        <v>56.66242038216561</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>53.88461538461539</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>55.2735178833905</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>5.375796178343949</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>4.589743589743589</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>4.982769884043769</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>15.29936305732484</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12.31410256410256</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>13.8067328107137</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>1.730392156862745</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AR7" t="n">
         <v>1.383</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AS7" t="n">
         <v>1.556696078431373</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AT7" t="n">
         <v>1</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AU7" t="n">
         <v>1.411</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AV7" t="n">
         <v>1.2055</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AW7" t="n">
         <v>1.725925925925926</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AX7" t="n">
         <v>1.413533834586466</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AY7" t="n">
         <v>3.139459760512392</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AZ7" t="n">
         <v>0.8222222222222222</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="BA7" t="n">
         <v>1.293233082706767</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="BB7" t="n">
         <v>2.115455304928989</v>
       </c>
     </row>
@@ -1585,7 +1792,7 @@
         <v>1.292993630573248</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.818634656214274</v>
+        <v>1.409317328107137</v>
       </c>
       <c r="AE8" t="n">
         <v>1.416666666666667</v>
@@ -1594,42 +1801,69 @@
         <v>1.579617834394905</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.996284501061571</v>
+        <v>1.498142250530786</v>
       </c>
       <c r="AH8" t="n">
+        <v>46.31410256410256</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>44.92356687898089</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>45.61883472154173</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>4.173076923076923</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>3.687898089171974</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>3.930487506124449</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>12.8974358974359</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>11.07643312101911</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>11.9869345092275</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>1.295145631067961</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AR8" t="n">
         <v>1.212121212121212</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AS8" t="n">
         <v>1.253633421594587</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AT8" t="n">
         <v>1.277669902912621</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AU8" t="n">
         <v>1.691919191919192</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AV8" t="n">
         <v>1.484794547415907</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AW8" t="n">
         <v>1.529411764705882</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AX8" t="n">
         <v>1.257575757575758</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AY8" t="n">
         <v>2.78698752228164</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AZ8" t="n">
         <v>1.375</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="BA8" t="n">
         <v>1.575757575757576</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="BB8" t="n">
         <v>2.950757575757576</v>
       </c>
     </row>
@@ -1724,7 +1958,7 @@
         <v>1.513157894736842</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.098684210526316</v>
+        <v>1.549342105263158</v>
       </c>
       <c r="AE9" t="n">
         <v>1.197368421052632</v>
@@ -1733,42 +1967,69 @@
         <v>1.598684210526316</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.796052631578947</v>
+        <v>1.398026315789474</v>
       </c>
       <c r="AH9" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>48.11842105263158</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>49.30921052631579</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>4.427631578947368</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>4.085526315789473</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>4.256578947368421</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>13.05263157894737</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11.51973684210526</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>12.28618421052632</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>1.453</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AR9" t="n">
         <v>1.414285714285714</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AS9" t="n">
         <v>1.433642857142857</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AT9" t="n">
         <v>1.258</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AU9" t="n">
         <v>1.428571428571429</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AV9" t="n">
         <v>1.343285714285714</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AW9" t="n">
         <v>1.598484848484848</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AX9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AY9" t="n">
         <v>3.098484848484849</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AZ9" t="n">
         <v>1.204545454545455</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="BA9" t="n">
         <v>1.537878787878788</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="BB9" t="n">
         <v>2.742424242424242</v>
       </c>
     </row>
@@ -1863,7 +2124,7 @@
         <v>1.101694915254237</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.395812562313061</v>
+        <v>1.19790628115653</v>
       </c>
       <c r="AE10" t="n">
         <v>1.294117647058824</v>
@@ -1872,42 +2133,69 @@
         <v>1.483050847457627</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.777168494516451</v>
+        <v>1.388584247258225</v>
       </c>
       <c r="AH10" t="n">
+        <v>52.40336134453781</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>49.50847457627118</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>50.9559179604045</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>3.966386554621849</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>3.610169491525424</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>3.788278023073636</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>13.88235294117647</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>10.60169491525424</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>12.24202392821535</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>1.454901960784314</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AR10" t="n">
         <v>1.099</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AS10" t="n">
         <v>1.276950980392157</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AT10" t="n">
         <v>1.12156862745098</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AU10" t="n">
         <v>1.487000000000001</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AV10" t="n">
         <v>1.30428431372549</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AW10" t="n">
         <v>1.254901960784314</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AX10" t="n">
         <v>1.03</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AY10" t="n">
         <v>2.284901960784314</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AZ10" t="n">
         <v>1.264705882352941</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="BA10" t="n">
         <v>1.51</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="BB10" t="n">
         <v>2.774705882352941</v>
       </c>
     </row>
@@ -2002,7 +2290,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.152121212121212</v>
+        <v>1.076060606060606</v>
       </c>
       <c r="AE11" t="n">
         <v>1.202020202020202</v>
@@ -2011,42 +2299,69 @@
         <v>1.35</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.552020202020202</v>
+        <v>1.276010101010101</v>
       </c>
       <c r="AH11" t="n">
+        <v>49.61616161616162</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>47.88</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>48.74808080808081</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>3.898989898989899</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>3.619494949494949</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>12.50505050505051</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>11.59752525252525</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>1.280952380952381</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AR11" t="n">
         <v>0.9964705882352941</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AS11" t="n">
         <v>1.138711484593838</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AT11" t="n">
         <v>1.154761904761905</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AU11" t="n">
         <v>1.468235294117647</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AV11" t="n">
         <v>1.311498599439776</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AW11" t="n">
         <v>1.273809523809524</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AX11" t="n">
         <v>0.9647058823529412</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AY11" t="n">
         <v>2.238515406162465</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AZ11" t="n">
         <v>1.119047619047619</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="BA11" t="n">
         <v>1.388235294117647</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="BB11" t="n">
         <v>2.507282913165266</v>
       </c>
     </row>
@@ -2141,7 +2456,7 @@
         <v>1.072992700729927</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.507775309425579</v>
+        <v>1.25388765471279</v>
       </c>
       <c r="AE12" t="n">
         <v>1.188405797101449</v>
@@ -2150,42 +2465,69 @@
         <v>1.605839416058394</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.794245213159844</v>
+        <v>1.397122606579922</v>
       </c>
       <c r="AH12" t="n">
+        <v>44.58695652173913</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>41.62043795620438</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>43.10369723897175</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>4.297101449275362</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>3.547445255474452</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>3.922273352374908</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>13.29710144927536</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10.08029197080292</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>11.68869671003914</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>1.417</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AR12" t="n">
         <v>1.066666666666667</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AS12" t="n">
         <v>1.241833333333333</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AT12" t="n">
         <v>1.215</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AU12" t="n">
         <v>1.597058823529412</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AV12" t="n">
         <v>1.406029411764706</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AW12" t="n">
         <v>1.418803418803419</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AX12" t="n">
         <v>1.14406779661017</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AY12" t="n">
         <v>2.562871215413589</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AZ12" t="n">
         <v>1.102564102564103</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="BA12" t="n">
         <v>1.635593220338983</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="BB12" t="n">
         <v>2.738157322903086</v>
       </c>
     </row>
@@ -2280,7 +2622,7 @@
         <v>1.127388535031847</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.261146496815287</v>
+        <v>1.130573248407643</v>
       </c>
       <c r="AE13" t="n">
         <v>1.24203821656051</v>
@@ -2289,42 +2631,69 @@
         <v>1.598726114649682</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.840764331210191</v>
+        <v>1.420382165605095</v>
       </c>
       <c r="AH13" t="n">
+        <v>47.13375796178344</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>43.78980891719745</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>45.46178343949045</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>3.828025477707006</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>3.292993630573248</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>3.560509554140127</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>12.32484076433121</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10.1656050955414</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>11.24522292993631</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>1.253921568627451</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AR13" t="n">
         <v>1.006930693069307</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AS13" t="n">
         <v>1.130426130848379</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AT13" t="n">
         <v>1.164705882352941</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AU13" t="n">
         <v>1.459405940594059</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AV13" t="n">
         <v>1.3120559114735</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AW13" t="n">
         <v>1.164179104477612</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AX13" t="n">
         <v>1.133333333333333</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AY13" t="n">
         <v>2.297512437810945</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AZ13" t="n">
         <v>1.253731343283582</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="BA13" t="n">
         <v>1.592592592592593</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="BB13" t="n">
         <v>2.846323935876175</v>
       </c>
     </row>
@@ -2419,7 +2788,7 @@
         <v>1.285714285714286</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.820598006644518</v>
+        <v>1.410299003322259</v>
       </c>
       <c r="AE14" t="n">
         <v>1.093023255813953</v>
@@ -2428,42 +2797,69 @@
         <v>1.595238095238095</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.688261351052049</v>
+        <v>1.344130675526024</v>
       </c>
       <c r="AH14" t="n">
+        <v>45.34883720930232</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>44.26190476190476</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>44.80537098560355</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>4.27906976744186</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>3.404761904761905</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>3.841915836101882</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>12.55813953488372</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>10.23809523809524</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>11.39811738648948</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>1.597222222222222</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AR14" t="n">
         <v>1.126470588235294</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AS14" t="n">
         <v>1.361846405228758</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AT14" t="n">
         <v>1.169444444444444</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AU14" t="n">
         <v>1.532352941176471</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AV14" t="n">
         <v>1.350898692810458</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AW14" t="n">
         <v>1.5</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AX14" t="n">
         <v>1.264705882352941</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AY14" t="n">
         <v>2.764705882352941</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AZ14" t="n">
         <v>1.111111111111111</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="BA14" t="n">
         <v>1.735294117647059</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="BB14" t="n">
         <v>2.84640522875817</v>
       </c>
     </row>
@@ -2558,7 +2954,7 @@
         <v>1.05</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.504545454545455</v>
+        <v>1.252272727272727</v>
       </c>
       <c r="AE15" t="n">
         <v>1.464646464646465</v>
@@ -2567,42 +2963,69 @@
         <v>1.57</v>
       </c>
       <c r="AG15" t="n">
-        <v>3.034646464646465</v>
+        <v>1.517323232323232</v>
       </c>
       <c r="AH15" t="n">
+        <v>48.35353535353536</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>45.84</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>47.09676767676768</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>4.292929292929293</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>3.976464646464647</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>12.70707070707071</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>11.91353535353535</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>1.394117647058823</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AR15" t="n">
         <v>1.185294117647059</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AS15" t="n">
         <v>1.289705882352941</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AT15" t="n">
         <v>1.445588235294118</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AU15" t="n">
         <v>1.483823529411765</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AV15" t="n">
         <v>1.464705882352941</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AW15" t="n">
         <v>1.364705882352941</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AX15" t="n">
         <v>1.047619047619048</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AY15" t="n">
         <v>2.412324929971989</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AZ15" t="n">
         <v>1.576470588235294</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="BA15" t="n">
         <v>1.476190476190476</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="BB15" t="n">
         <v>3.05266106442577</v>
       </c>
     </row>
@@ -2697,7 +3120,7 @@
         <v>1.085526315789474</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.361842105263158</v>
+        <v>1.180921052631579</v>
       </c>
       <c r="AE16" t="n">
         <v>1.447368421052632</v>
@@ -2706,42 +3129,69 @@
         <v>1.697368421052632</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.144736842105263</v>
+        <v>1.572368421052632</v>
       </c>
       <c r="AH16" t="n">
+        <v>49.16447368421053</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>48.69078947368421</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>48.92763157894737</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>4.335526315789473</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>3.940789473684211</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>4.138157894736842</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>11.72368421052632</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>12.48684210526316</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>1.187878787878788</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AR16" t="n">
         <v>1.106060606060606</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AS16" t="n">
         <v>1.146969696969697</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AT16" t="n">
         <v>1.328282828282828</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AU16" t="n">
         <v>1.6</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AV16" t="n">
         <v>1.464141414141414</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AW16" t="n">
         <v>1.295454545454545</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AX16" t="n">
         <v>1.098484848484848</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AY16" t="n">
         <v>2.393939393939394</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AZ16" t="n">
         <v>1.46969696969697</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="BA16" t="n">
         <v>1.765151515151515</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="BB16" t="n">
         <v>3.234848484848485</v>
       </c>
     </row>
@@ -2836,7 +3286,7 @@
         <v>1.064102564102564</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.529070716968806</v>
+        <v>1.264535358484403</v>
       </c>
       <c r="AE17" t="n">
         <v>1.24203821656051</v>
@@ -2845,42 +3295,69 @@
         <v>1.596153846153846</v>
       </c>
       <c r="AG17" t="n">
-        <v>2.838192062714356</v>
+        <v>1.419096031357178</v>
       </c>
       <c r="AH17" t="n">
+        <v>48.49044585987261</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>46.07692307692308</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>47.28368446839784</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>4.382165605095541</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>4.024416135881104</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>12.91082802547771</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>10.67948717948718</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>11.79515760248244</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>1.294117647058824</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AR17" t="n">
         <v>1.104</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AS17" t="n">
         <v>1.199058823529412</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AT17" t="n">
         <v>1.243137254901961</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AU17" t="n">
         <v>1.566</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AV17" t="n">
         <v>1.404568627450981</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AW17" t="n">
         <v>1.440298507462687</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AX17" t="n">
         <v>1.044776119402985</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AY17" t="n">
         <v>2.485074626865671</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AZ17" t="n">
         <v>1.231343283582089</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="BA17" t="n">
         <v>1.611940298507463</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="BB17" t="n">
         <v>2.843283582089552</v>
       </c>
     </row>
@@ -2975,7 +3452,7 @@
         <v>1.385964912280702</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AE18" t="n">
         <v>1.684210526315789</v>
@@ -2984,42 +3461,69 @@
         <v>2.017543859649123</v>
       </c>
       <c r="AG18" t="n">
-        <v>3.701754385964912</v>
+        <v>1.850877192982456</v>
       </c>
       <c r="AH18" t="n">
+        <v>53.3859649122807</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>51.01754385964912</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>52.20175438596491</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>4.350877192982456</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>4.175438596491228</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>13.52631578947368</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>12.03508771929824</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>12.78070175438597</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>1.43265306122449</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AR18" t="n">
         <v>1.148</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AS18" t="n">
         <v>1.290326530612245</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AT18" t="n">
         <v>1.520408163265306</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AU18" t="n">
         <v>1.896</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AV18" t="n">
         <v>1.708204081632653</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AW18" t="n">
         <v>1.224489795918367</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AX18" t="n">
         <v>1.4</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AY18" t="n">
         <v>2.624489795918367</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AZ18" t="n">
         <v>1.714285714285714</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="BA18" t="n">
         <v>2.02</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="BB18" t="n">
         <v>3.734285714285714</v>
       </c>
     </row>
@@ -3114,7 +3618,7 @@
         <v>0.940677966101695</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.99950149551346</v>
+        <v>0.9997507477567298</v>
       </c>
       <c r="AE19" t="n">
         <v>1.344537815126051</v>
@@ -3123,42 +3627,69 @@
         <v>1.550847457627119</v>
       </c>
       <c r="AG19" t="n">
-        <v>2.895385272753169</v>
+        <v>1.447692636376585</v>
       </c>
       <c r="AH19" t="n">
+        <v>43.47899159663866</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>40.19491525423729</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>41.83695342543797</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>3.46218487394958</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2.85593220338983</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>3.159058538669705</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>11.10924369747899</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>9.025423728813559</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>10.06733371314628</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>1.267441860465116</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AR19" t="n">
         <v>0.9120481927710844</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AS19" t="n">
         <v>1.0897450266181</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AT19" t="n">
         <v>1.352325581395349</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AU19" t="n">
         <v>1.575903614457832</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AV19" t="n">
         <v>1.46411459792659</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AW19" t="n">
         <v>1.107843137254902</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AX19" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AY19" t="n">
         <v>2.047843137254902</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AZ19" t="n">
         <v>1.294117647058824</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="BA19" t="n">
         <v>1.5</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="BB19" t="n">
         <v>2.794117647058823</v>
       </c>
     </row>
@@ -3253,7 +3784,7 @@
         <v>0.956140350877193</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.157894736842105</v>
+        <v>1.078947368421053</v>
       </c>
       <c r="AE20" t="n">
         <v>1.578947368421053</v>
@@ -3262,42 +3793,69 @@
         <v>1.771929824561403</v>
       </c>
       <c r="AG20" t="n">
-        <v>3.350877192982456</v>
+        <v>1.675438596491228</v>
       </c>
       <c r="AH20" t="n">
+        <v>46.3859649122807</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>45.19298245614035</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>3.701754385964912</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>3.280701754385965</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>3.491228070175438</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>12.23684210526316</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>10.14912280701754</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>11.19298245614035</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>1.2609375</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AR20" t="n">
         <v>1.133823529411765</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AS20" t="n">
         <v>1.197380514705882</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AT20" t="n">
         <v>1.5015625</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AU20" t="n">
         <v>1.630882352941176</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AV20" t="n">
         <v>1.566222426470588</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AW20" t="n">
         <v>1.197916666666667</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AX20" t="n">
         <v>0.8921568627450981</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AY20" t="n">
         <v>2.090073529411765</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AZ20" t="n">
         <v>1.552083333333333</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="BA20" t="n">
         <v>1.843137254901961</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="BB20" t="n">
         <v>3.395220588235294</v>
       </c>
     </row>
@@ -3392,7 +3950,7 @@
         <v>0.543859649122807</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.543859649122807</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="AE21" t="n">
         <v>1.929824561403509</v>
@@ -3401,42 +3959,69 @@
         <v>2.035087719298246</v>
       </c>
       <c r="AG21" t="n">
-        <v>3.964912280701754</v>
+        <v>1.982456140350877</v>
       </c>
       <c r="AH21" t="n">
+        <v>46.43859649122807</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>45.68421052631579</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>46.06140350877193</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>3.526315789473684</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2.771929824561404</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>3.149122807017544</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>11.36842105263158</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>9.578947368421053</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>10.47368421052632</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AR21" t="n">
         <v>0.9117647058823529</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AS21" t="n">
         <v>0.8808823529411764</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AT21" t="n">
         <v>1.81875</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AU21" t="n">
         <v>1.897058823529412</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AV21" t="n">
         <v>1.857904411764706</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AW21" t="n">
         <v>0.875</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AX21" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AY21" t="n">
         <v>1.404411764705882</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AZ21" t="n">
         <v>1.895833333333333</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="BA21" t="n">
         <v>1.96078431372549</v>
       </c>
-      <c r="AS21" t="n">
+      <c r="BB21" t="n">
         <v>3.856617647058823</v>
       </c>
     </row>
